--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.5593185</v>
+        <v>0.016643</v>
       </c>
       <c r="H2">
-        <v>3.118637</v>
+        <v>0.033286</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.003374047748360872</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.003374047748360872</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N2">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O2">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P2">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q2">
-        <v>5.54142889903425</v>
+        <v>0.07150560099099999</v>
       </c>
       <c r="R2">
-        <v>22.165715596137</v>
+        <v>0.286022403964</v>
       </c>
       <c r="S2">
-        <v>0.06158978841018559</v>
+        <v>0.0002947949096030294</v>
       </c>
       <c r="T2">
-        <v>0.04765892007993501</v>
+        <v>0.0002320212789033382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.5593185</v>
+        <v>0.016643</v>
       </c>
       <c r="H3">
-        <v>3.118637</v>
+        <v>0.033286</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.003374047748360872</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.003374047748360872</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.975685</v>
       </c>
       <c r="O3">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P3">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q3">
-        <v>20.77827505689083</v>
+        <v>0.2217717751516667</v>
       </c>
       <c r="R3">
-        <v>124.669650341345</v>
+        <v>1.33063065091</v>
       </c>
       <c r="S3">
-        <v>0.2309385516983846</v>
+        <v>0.0009142946776514416</v>
       </c>
       <c r="T3">
-        <v>0.2680545492087383</v>
+        <v>0.001079407141165691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.5593185</v>
+        <v>0.016643</v>
       </c>
       <c r="H4">
-        <v>3.118637</v>
+        <v>0.033286</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.003374047748360872</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.003374047748360872</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N4">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O4">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P4">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q4">
-        <v>10.9432052332085</v>
+        <v>0.11467842507</v>
       </c>
       <c r="R4">
-        <v>65.65923139925101</v>
+        <v>0.6880705504200001</v>
       </c>
       <c r="S4">
-        <v>0.1216274190507089</v>
+        <v>0.0004727827678307813</v>
       </c>
       <c r="T4">
-        <v>0.1411751426744924</v>
+        <v>0.0005581626015011962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.5593185</v>
+        <v>0.016643</v>
       </c>
       <c r="H5">
-        <v>3.118637</v>
+        <v>0.033286</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.003374047748360872</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.003374047748360872</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N5">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O5">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P5">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q5">
-        <v>31.83280185701925</v>
+        <v>0.3040611441945</v>
       </c>
       <c r="R5">
-        <v>127.331207428077</v>
+        <v>1.216244576778</v>
       </c>
       <c r="S5">
-        <v>0.3538032458052225</v>
+        <v>0.001253547642063637</v>
       </c>
       <c r="T5">
-        <v>0.2737772129294102</v>
+        <v>0.0009866171958990988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.5593185</v>
+        <v>0.016643</v>
       </c>
       <c r="H6">
-        <v>3.118637</v>
+        <v>0.033286</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.003374047748360872</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.003374047748360872</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N6">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O6">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P6">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q6">
-        <v>3.752740105299</v>
+        <v>0.02256061836600001</v>
       </c>
       <c r="R6">
-        <v>22.516440631794</v>
+        <v>0.135363710196</v>
       </c>
       <c r="S6">
-        <v>0.04170954337861558</v>
+        <v>9.301027275654266E-05</v>
       </c>
       <c r="T6">
-        <v>0.04841302054521945</v>
+        <v>0.0001098069966600582</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.5593185</v>
+        <v>0.016643</v>
       </c>
       <c r="H7">
-        <v>3.118637</v>
+        <v>0.033286</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.003374047748360872</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.003374047748360872</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N7">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O7">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P7">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q7">
-        <v>17.12472528046817</v>
+        <v>0.08383314875833335</v>
       </c>
       <c r="R7">
-        <v>102.748351682809</v>
+        <v>0.5029988925500001</v>
       </c>
       <c r="S7">
-        <v>0.1903314516568828</v>
+        <v>0.0003456174784554395</v>
       </c>
       <c r="T7">
-        <v>0.2209211545622045</v>
+        <v>0.0004080325342314897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.916008</v>
+      </c>
+      <c r="H8">
+        <v>9.832015999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9966259522516391</v>
+      </c>
+      <c r="J8">
+        <v>0.9966259522516391</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.296436999999999</v>
+      </c>
+      <c r="N8">
+        <v>8.592873999999998</v>
+      </c>
+      <c r="O8">
+        <v>0.08737129157293111</v>
+      </c>
+      <c r="P8">
+        <v>0.06876644796033347</v>
+      </c>
+      <c r="Q8">
+        <v>21.12131866349599</v>
+      </c>
+      <c r="R8">
+        <v>84.48527465398398</v>
+      </c>
+      <c r="S8">
+        <v>0.08707649666332808</v>
+      </c>
+      <c r="T8">
+        <v>0.06853442668143013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.916008</v>
+      </c>
+      <c r="H9">
+        <v>9.832015999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9966259522516391</v>
+      </c>
+      <c r="J9">
+        <v>0.9966259522516391</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.32522833333333</v>
+      </c>
+      <c r="N9">
+        <v>39.975685</v>
+      </c>
+      <c r="O9">
+        <v>0.2709785829485105</v>
+      </c>
+      <c r="P9">
+        <v>0.3199146015909443</v>
+      </c>
+      <c r="Q9">
+        <v>65.50692908849334</v>
+      </c>
+      <c r="R9">
+        <v>393.04157453096</v>
+      </c>
+      <c r="S9">
+        <v>0.270064288270859</v>
+      </c>
+      <c r="T9">
+        <v>0.3188351944497786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.916008</v>
+      </c>
+      <c r="H10">
+        <v>9.832015999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.9966259522516391</v>
+      </c>
+      <c r="J10">
+        <v>0.9966259522516391</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.89049</v>
+      </c>
+      <c r="N10">
+        <v>20.67147</v>
+      </c>
+      <c r="O10">
+        <v>0.140123318663899</v>
+      </c>
+      <c r="P10">
+        <v>0.1654281868928364</v>
+      </c>
+      <c r="Q10">
+        <v>33.87370396391999</v>
+      </c>
+      <c r="R10">
+        <v>203.24222378352</v>
+      </c>
+      <c r="S10">
+        <v>0.1396505358960682</v>
+      </c>
+      <c r="T10">
+        <v>0.1648700242913352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.916008</v>
+      </c>
+      <c r="H11">
+        <v>9.832015999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9966259522516391</v>
+      </c>
+      <c r="J11">
+        <v>0.9966259522516391</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>18.2696115</v>
+      </c>
+      <c r="N11">
+        <v>36.539223</v>
+      </c>
+      <c r="O11">
+        <v>0.3715263492262718</v>
+      </c>
+      <c r="P11">
+        <v>0.292413525083752</v>
+      </c>
+      <c r="Q11">
+        <v>89.813556290892</v>
+      </c>
+      <c r="R11">
+        <v>359.254225163568</v>
+      </c>
+      <c r="S11">
+        <v>0.3702728015842082</v>
+      </c>
+      <c r="T11">
+        <v>0.2914269078878529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.916008</v>
+      </c>
+      <c r="H12">
+        <v>9.832015999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.9966259522516391</v>
+      </c>
+      <c r="J12">
+        <v>0.9966259522516391</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.355562</v>
+      </c>
+      <c r="N12">
+        <v>4.066686000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.02756637715092428</v>
+      </c>
+      <c r="P12">
+        <v>0.03254458882907125</v>
+      </c>
+      <c r="Q12">
+        <v>6.663953636496</v>
+      </c>
+      <c r="R12">
+        <v>39.98372181897601</v>
+      </c>
+      <c r="S12">
+        <v>0.02747336687816774</v>
+      </c>
+      <c r="T12">
+        <v>0.03243478183241119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.916008</v>
+      </c>
+      <c r="H13">
+        <v>9.832015999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.9966259522516391</v>
+      </c>
+      <c r="J13">
+        <v>0.9966259522516391</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.037141666666667</v>
+      </c>
+      <c r="N13">
+        <v>15.111425</v>
+      </c>
+      <c r="O13">
+        <v>0.1024340804374633</v>
+      </c>
+      <c r="P13">
+        <v>0.1209326496430627</v>
+      </c>
+      <c r="Q13">
+        <v>24.76262873046667</v>
+      </c>
+      <c r="R13">
+        <v>148.5757723828</v>
+      </c>
+      <c r="S13">
+        <v>0.1020884629590079</v>
+      </c>
+      <c r="T13">
+        <v>0.1205246171088312</v>
       </c>
     </row>
   </sheetData>
